--- a/biology/Médecine/Rasmus_Bartholin/Rasmus_Bartholin.xlsx
+++ b/biology/Médecine/Rasmus_Bartholin/Rasmus_Bartholin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rasmus Bartholin, ou Erasmus Berthelsen, né à Roskilde le 13 août 1625 et mort à Copenhague le 4 novembre 1698, est un médecin danois qui étudia la biréfringence du spath d'Islande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du médecin Caspar Berthelsen, frère de Thomas Bartholin, Rasmus Bartholin étudie lui-même la médecine mais s'intéresse principalement à la géométrie. Pour perfectionner ses connaissances, il voyage en Italie et en France où il se lie avec l'astronome Jean Picard. À la suite de cette rencontre, l'académicien français fera lui-même un séjour au Danemark à l'invitation de Bartholin.
 Bartholin enseigne par la suite les mathématiques et la médecine à l'université de Copenhague, dont il devient le doyen.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« De figura nivis », dans Thomas Bartolin, De nivis usu medico observationes variae. Accessit D. Erasmi Bartholini de figura nivis dissertatio sur Google Livres, Copenhague, P. Haubold, 1661
 De problematibus mathematicis tractatus (1664), Copenhague
